--- a/medicine/Psychotrope/Florian_de_Lorch/Florian_de_Lorch.xlsx
+++ b/medicine/Psychotrope/Florian_de_Lorch/Florian_de_Lorch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Florian de Lorch ou Florian de Lorsch (Florianus en latin), né vers 250 et mort vers 304, est un officier de l'armée romaine, administrateur militaire d'une ville de la province romaine de Noricum. Il était chrétien, mais gardait sa foi cachée.
 On dit qu'il a sauvé un village d'un incendie en priant et en se voyant symboliquement jeter un seau d'eau pour l'éteindre ; c'est pourquoi il est associé aux pompiers et à tous ceux qui protègent du feu, y compris les ramoneurs.
-Quand durant les persécutions de Dioclétien, chargé d'exécuter un groupe de chrétiens, il a refusé, il a été tué par noyade dans la rivière Enns avec une pierre autour du cou. Il est fêté le 4 mai[1]en tant que saint et martyr par les catholiques et les orthodoxes[2].
+Quand durant les persécutions de Dioclétien, chargé d'exécuter un groupe de chrétiens, il a refusé, il a été tué par noyade dans la rivière Enns avec une pierre autour du cou. Il est fêté le 4 maien tant que saint et martyr par les catholiques et les orthodoxes.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Vie de saint Florian</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Florian vivait du temps de l'empereur Dioclétien et occupait de hautes fonctions dans l'armée impériale basée dans la province du Noricum. Il était aussi responsable des brigades de pompiers.
 Les Romains luttaient alors contre l'expansion du christianisme, et envoyèrent le consul Aquilinus à Lauriacum (aujourd'hui Enns en Autriche) pour accélérer la persécution envers les chrétiens.
@@ -550,10 +564,12 @@
           <t>Légende de saint Florian</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est dit que saint Florian de Lorch était le frère de saint Florent d'Anjou, et qu'ils auraient grandi ensemble sur les rives du Danube.
-Après avoir été condamné à mort par le préfet Aquilien, Florent est sauvé miraculeusement. Il part et laisse son frère, Florian, à son martyre, après lui avoir dit au revoir[3].
+Après avoir été condamné à mort par le préfet Aquilien, Florent est sauvé miraculeusement. Il part et laisse son frère, Florian, à son martyre, après lui avoir dit au revoir.
 Saint Florian aurait également éteint un incendie en jetant sur les flammes un simple seau d'eau. C'est pourquoi il est souvent représenté en compagnie d'un ange qui déverse de l'eau sur un brasier.
 </t>
         </is>
